--- a/Excel/TestData.xlsx
+++ b/Excel/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\eclipse-workspace\TestNGPractice\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF5FA4C-567D-4031-9F05-1B5B72842D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9909485F-64C2-4C78-8DC0-41A3038802B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C02DC098-BD42-4DED-9B0F-775B8BB78BAF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Email</t>
   </si>
@@ -37,6 +37,51 @@
   </si>
   <si>
     <t>Lovely@0612</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Apartment</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>ZipCode</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>card No</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>5555555555552222</t>
+  </si>
+  <si>
+    <t>nuts</t>
+  </si>
+  <si>
+    <t>Arun</t>
+  </si>
+  <si>
+    <t>Gandhi Street,Tirupati</t>
+  </si>
+  <si>
+    <t>2/32</t>
+  </si>
+  <si>
+    <t>CVV</t>
   </si>
 </sst>
 </file>
@@ -86,11 +131,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -406,41 +452,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE31353-1D83-4AE8-8D94-166BFB2E101A}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-      <c r="I2" s="2"/>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>6382134561</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2">
+        <v>517588</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="2">
+        <v>786</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
